--- a/pick_sys/Test_readxml.xlsx
+++ b/pick_sys/Test_readxml.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doublepeace/Desktop/小啟/Big_start/gui_version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doublepeace/Desktop/小啟/Big_start/gui_version/pick_sys/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,27 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>老爸</t>
-  </si>
-  <si>
-    <t>老媽</t>
-  </si>
-  <si>
-    <t>育哥哥</t>
-  </si>
-  <si>
-    <t>蓉蓉</t>
-  </si>
-  <si>
-    <t>和和</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>男</t>
   </si>
   <si>
     <t>女</t>
+  </si>
+  <si>
+    <t>gamepire</t>
+  </si>
+  <si>
+    <t>cindy</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Emma</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -372,42 +375,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
